--- a/Documentatie/Urenverantwoording/Dirk/Urenverantwoording.xlsx
+++ b/Documentatie/Urenverantwoording/Dirk/Urenverantwoording.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouma\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Dirk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89372D9-3558-4334-AB71-8F6381102822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA5C5AC-52F3-43FF-94AF-02B6E5A75DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="48">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>We zijn bezig geweest met het beoordelen van een handleiding van een robotgrasmaaier</t>
+  </si>
+  <si>
+    <t>We hebben een project vergadering gehad en we zijn bezig geweest met het beoorelen van een handleiding</t>
   </si>
 </sst>
 </file>
@@ -798,18 +801,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,6 +865,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -14060,8 +14063,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:N20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14141,10 +14144,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14152,10 +14155,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14181,10 +14184,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14192,10 +14195,10 @@
         <v>41</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14262,19 +14265,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14283,25 +14286,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14312,22 +14315,22 @@
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14335,25 +14338,25 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14364,22 +14367,22 @@
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14387,26 +14390,26 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <v>0.1875</v>
       </c>
       <c r="C15" s="27">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14417,48 +14420,48 @@
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14467,46 +14470,48 @@
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14515,22 +14520,22 @@
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -14549,7 +14554,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14571,51 +14576,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -14685,6 +14690,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14698,16 +14713,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14997,11 +15002,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15009,11 +15014,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15039,11 +15044,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15051,11 +15056,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15122,18 +15127,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15143,25 +15148,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15170,46 +15175,46 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15218,46 +15223,46 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15266,46 +15271,46 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15314,46 +15319,46 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15362,22 +15367,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -15396,7 +15401,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15418,51 +15423,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -15535,6 +15540,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15544,20 +15563,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15649,11 +15654,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15661,11 +15666,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15691,11 +15696,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15703,11 +15708,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15774,18 +15779,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15795,25 +15800,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15822,46 +15827,46 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15870,46 +15875,46 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15918,46 +15923,46 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15966,46 +15971,46 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16014,22 +16019,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -16048,7 +16053,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16070,51 +16075,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -16184,6 +16189,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16197,16 +16212,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16298,11 +16303,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16310,11 +16315,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16340,11 +16345,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16352,11 +16357,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16423,18 +16428,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16444,25 +16449,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16471,46 +16476,46 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16519,46 +16524,46 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16567,45 +16572,45 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16615,45 +16620,45 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16663,22 +16668,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -16697,7 +16702,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16719,51 +16724,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -16833,6 +16838,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16846,16 +16861,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16948,11 +16953,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16960,11 +16965,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16990,11 +16995,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17002,11 +17007,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17073,18 +17078,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17094,25 +17099,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17121,45 +17126,45 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17169,45 +17174,45 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17217,45 +17222,45 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17265,45 +17270,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17313,22 +17318,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -17347,7 +17352,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17369,51 +17374,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -17483,6 +17488,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17496,16 +17511,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17610,11 +17615,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17622,11 +17627,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17652,11 +17657,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17664,11 +17669,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17735,18 +17740,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17756,25 +17761,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17783,45 +17788,45 @@
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17831,45 +17836,45 @@
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17879,45 +17884,45 @@
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17927,45 +17932,45 @@
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17975,22 +17980,22 @@
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -18009,7 +18014,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18031,51 +18036,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -18145,6 +18150,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18158,16 +18173,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18260,11 +18265,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18272,11 +18277,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18302,11 +18307,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18314,11 +18319,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -18385,18 +18390,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -18406,25 +18411,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -18433,45 +18438,45 @@
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -18481,45 +18486,45 @@
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -18529,45 +18534,45 @@
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18577,45 +18582,45 @@
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18625,22 +18630,22 @@
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -18659,7 +18664,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18681,51 +18686,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -18795,6 +18800,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18808,16 +18823,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18922,11 +18927,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18934,11 +18939,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -18964,11 +18969,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18976,11 +18981,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19047,18 +19052,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19068,25 +19073,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -19095,45 +19100,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19143,45 +19148,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19191,45 +19196,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19239,45 +19244,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19287,22 +19292,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="2"/>
@@ -19321,7 +19326,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19343,51 +19348,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -19457,6 +19462,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19470,16 +19485,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20204,26 +20209,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20426,26 +20411,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20462,4 +20448,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Dirk/Urenverantwoording.xlsx
+++ b/Documentatie/Urenverantwoording/Dirk/Urenverantwoording.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouma\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\Dirk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouma\OneDrive\Documenten\School\Project wasmachine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA5C5AC-52F3-43FF-94AF-02B6E5A75DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C5DD5E-5946-40B1-8161-D46070D58C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34290" yWindow="0" windowWidth="17415" windowHeight="20985" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="65">
   <si>
     <t>Urenverantwoordingsformulier</t>
   </si>
@@ -186,6 +186,57 @@
   </si>
   <si>
     <t>We hebben een project vergadering gehad en we zijn bezig geweest met het beoorelen van een handleiding</t>
+  </si>
+  <si>
+    <t>Uitleg over het project</t>
+  </si>
+  <si>
+    <t>We zijn verder gegaan met de review van de handleiding en hebben een takenverdeling gemaakt voor het programeren</t>
+  </si>
+  <si>
+    <t>Tutor gesprek met Cees en documentatie</t>
+  </si>
+  <si>
+    <t>Bezig met review en PVA</t>
+  </si>
+  <si>
+    <t>Ammaar geholpen met top down</t>
+  </si>
+  <si>
+    <t>Vakantie</t>
+  </si>
+  <si>
+    <t>overleg en top-down in hdl gezet</t>
+  </si>
+  <si>
+    <t>Perijn en ik zijn bezig geweest met het verbeteren van het top-down architectuur.</t>
+  </si>
+  <si>
+    <t>Tutor gesprek</t>
+  </si>
+  <si>
+    <t>Bezig geweest met de VHDL state diagrammen</t>
+  </si>
+  <si>
+    <t>Perijn, Ammaar en ik hebben samen gezeten om de state diagrams te verbeteren zodat wij beter met elkaar konden overleggen</t>
+  </si>
+  <si>
+    <t>Bezig geweest met het maken van de VHDL state diagrams</t>
+  </si>
+  <si>
+    <t>Testen van de vhdl code met de testopstelling</t>
+  </si>
+  <si>
+    <t>Uitleg over testopstelling en bezig geweest met journaal en andere documentatie</t>
+  </si>
+  <si>
+    <t>Testplan gemaakt samen met perijn</t>
+  </si>
+  <si>
+    <t>Ziek</t>
+  </si>
+  <si>
+    <t>Laatste check of alles volledig werkt mbv testopstelling</t>
   </si>
 </sst>
 </file>
@@ -720,7 +771,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -801,6 +852,18 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,18 +930,6 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -903,12 +954,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
+    <cellStyle name="Procent" xfId="2" builtinId="5"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -926,7 +980,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2546,7 +2600,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2817,22 +2871,22 @@
                   <c:v>0.34375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.40624999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.29166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.36458333333333337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2944,7 +2998,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3192,19 +3246,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.49999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.34375000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1875</c:v>
+                  <c:v>0.48958333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10416666666666663</c:v>
+                  <c:v>0.22916666666666663</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.208333333333337E-2</c:v>
+                  <c:v>0.30208333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3313,7 +3367,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3560,10 +3614,10 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3572,7 +3626,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3810,7 +3864,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4063,7 +4117,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4307,7 +4361,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4498,16 +4552,16 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19791666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.166666666666663E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4618,7 +4672,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4809,13 +4863,13 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.13541666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -4929,7 +4983,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5120,19 +5174,19 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.291666666666663E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5240,7 +5294,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5431,7 +5485,7 @@
                 <c:formatCode>[$-F400]h:mm:ss\ am/pm</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -5551,7 +5605,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5862,7 +5916,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7005,10 +7059,10 @@
                   <c:v>5.208333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -7017,7 +7071,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -7026,7 +7080,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -7035,28 +7089,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.10416666666666663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.19791666666666669</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.166666666666663E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.13541666666666663</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -7065,22 +7119,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>7.291666666666663E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>8.333333333333337E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -13764,7 +13818,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -14063,19 +14117,19 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D13" sqref="D13:N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" customWidth="1"/>
-    <col min="17" max="17" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14089,7 +14143,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -14123,7 +14177,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14139,15 +14193,15 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14155,15 +14209,15 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14179,15 +14233,15 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14195,15 +14249,15 @@
         <v>41</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -14219,7 +14273,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -14239,7 +14293,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -14255,7 +14309,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:17" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -14265,279 +14319,281 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="54">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
       <c r="Q11" s="18"/>
     </row>
-    <row r="12" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
       <c r="Q13" s="18"/>
     </row>
-    <row r="14" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <v>0.1875</v>
       </c>
       <c r="C15" s="27">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="18"/>
     </row>
-    <row r="16" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -14553,8 +14609,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14575,55 +14631,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -14639,7 +14695,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -14662,7 +14718,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -14690,16 +14746,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14713,6 +14759,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14742,15 +14798,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>27</v>
       </c>
@@ -14770,12 +14826,12 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>27</v>
       </c>
@@ -14791,12 +14847,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>27</v>
       </c>
@@ -14812,12 +14868,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G7" s="20">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>27</v>
       </c>
@@ -14833,12 +14889,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>27</v>
       </c>
@@ -14854,8 +14910,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="12" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>27</v>
       </c>
@@ -14868,8 +14924,8 @@
         <v>45726</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="14" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
@@ -14882,8 +14938,8 @@
         <v>45733</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="16" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>27</v>
       </c>
@@ -14896,8 +14952,8 @@
         <v>45740</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="18" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
@@ -14921,17 +14977,18 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14945,7 +15002,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -14981,7 +15038,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14997,16 +15054,16 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15014,16 +15071,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15039,16 +15096,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15056,16 +15113,16 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15081,7 +15138,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -15101,7 +15158,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -15117,7 +15174,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -15127,264 +15184,270 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="C11" s="27">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
-      <c r="C11" s="27">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C13" s="27">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
-      <c r="C13" s="27">
-        <v>0</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
+        <v>0.125</v>
+      </c>
+      <c r="C19" s="27">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
-      <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -15400,8 +15463,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15422,55 +15485,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -15486,7 +15549,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -15494,7 +15557,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 1'!D27)</f>
-        <v>0.34375</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -15509,7 +15572,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -15517,7 +15580,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -15535,16 +15598,20 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
     <mergeCell ref="D15:N16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
@@ -15554,15 +15621,11 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15573,17 +15636,17 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C20"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15597,7 +15660,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -15633,7 +15696,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -15649,16 +15712,16 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15666,16 +15729,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -15691,16 +15754,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15708,16 +15771,16 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -15733,7 +15796,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -15753,7 +15816,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -15769,7 +15832,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -15779,264 +15842,274 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
+      <c r="D13" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="C15" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
-      <c r="C15" s="27">
-        <v>0</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="74">
+      <c r="D17" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="74">
+      <c r="D19" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -16052,8 +16125,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16074,55 +16147,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -16138,7 +16211,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -16146,7 +16219,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 2'!D27)</f>
-        <v>0.34375</v>
+        <v>0.71875</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16161,7 +16234,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -16169,7 +16242,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16189,16 +16262,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16212,6 +16275,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16222,17 +16295,17 @@
   <sheetPr codeName="Blad5"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16246,7 +16319,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -16282,7 +16355,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -16298,16 +16371,16 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16315,16 +16388,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -16340,16 +16413,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16357,16 +16430,16 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -16382,7 +16455,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -16402,7 +16475,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -16418,7 +16491,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -16428,264 +16501,272 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
+        <v>0.10416666666666663</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
+        <v>0.19791666666666669</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="50">
         <v>0</v>
       </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="50">
         <v>0</v>
       </c>
-      <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -16701,8 +16782,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16723,55 +16804,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -16787,7 +16868,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -16795,7 +16876,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 3'!D27)</f>
-        <v>0.34375</v>
+        <v>1.125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -16810,7 +16891,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -16818,7 +16899,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.40624999999999994</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -16838,16 +16919,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16861,6 +16932,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16872,17 +16953,18 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D17" sqref="D17:N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.53125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16896,7 +16978,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -16932,7 +17014,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -16948,16 +17030,16 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16965,16 +17047,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -16990,16 +17072,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17007,16 +17089,16 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -17032,7 +17114,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -17052,7 +17134,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -17068,7 +17150,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -17078,264 +17160,268 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.46875</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -17351,8 +17437,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17373,55 +17459,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -17437,7 +17523,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -17445,7 +17531,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 4'!D27)</f>
-        <v>0.34375</v>
+        <v>1.4166666666666665</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -17460,7 +17546,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -17468,7 +17554,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -17488,16 +17574,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17511,6 +17587,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17534,17 +17620,17 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.796875" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17558,7 +17644,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -17594,7 +17680,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -17610,16 +17696,16 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17627,16 +17713,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -17652,16 +17738,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17669,16 +17755,16 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -17694,7 +17780,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -17714,7 +17800,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -17730,7 +17816,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -17740,264 +17826,272 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <f>F2</f>
         <v>45726</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
-        <f>C14-C13-O13</f>
-        <v>0</v>
+      <c r="B13" s="75">
+        <f>C14-C13</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f>A12+1</f>
         <v>45727</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>A14+1</f>
         <v>45728</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+        <v>0.4375</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45729</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45730</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -18013,8 +18107,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18035,55 +18129,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -18099,7 +18193,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -18107,7 +18201,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>0.34375</v>
+        <v>1.78125</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18122,7 +18216,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -18130,7 +18224,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>0.36458333333333337</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -18150,16 +18244,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18173,6 +18257,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18183,18 +18277,18 @@
   <sheetPr codeName="Blad8"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" customWidth="1"/>
-    <col min="9" max="9" width="10.53125" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18208,7 +18302,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -18244,7 +18338,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -18260,16 +18354,16 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18277,16 +18371,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -18302,16 +18396,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18319,16 +18413,16 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -18344,7 +18438,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -18364,7 +18458,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -18380,7 +18474,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -18390,264 +18484,274 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
-        <f>C12-C11-O11</f>
+      <c r="B11" s="75">
+        <f>C12-C11</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
-      <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <f>F2</f>
         <v>45733</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
-        <v>0</v>
-      </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f>A12+1</f>
         <v>45734</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>A14+1</f>
         <v>45735</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45736</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45737</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -18663,8 +18767,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18685,55 +18789,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -18749,7 +18853,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -18757,7 +18861,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>0.34375</v>
+        <v>1.8645833333333335</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18772,7 +18876,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -18780,7 +18884,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -18800,16 +18904,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18823,6 +18917,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18849,14 +18953,14 @@
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.649999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18870,7 +18974,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -18906,7 +19010,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -18922,16 +19026,16 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="72" t="str">
+      <c r="C4" s="52" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="72"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -18939,16 +19043,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="72" t="str">
+      <c r="J4" s="52" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="72"/>
+      <c r="K4" s="52"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -18964,16 +19068,16 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="72" t="str">
+      <c r="C6" s="52" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="72"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -18981,16 +19085,16 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="72" t="str">
+      <c r="J6" s="52" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="72"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -19006,7 +19110,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -19026,7 +19130,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -19042,7 +19146,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>11</v>
       </c>
@@ -19052,264 +19156,264 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="75">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="74">
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="50">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="75"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="71">
+      <c r="B13" s="75">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="51"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D14" s="59"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="75">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="64"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="51"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="75"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="75">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="75"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="75">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="64"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="75"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -19325,8 +19429,8 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="61" t="s">
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19347,55 +19451,55 @@
       <c r="M22" s="17"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="66"/>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="62"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="66"/>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="66"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="70"/>
       <c r="N24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" s="63"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="70"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="74"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -19411,7 +19515,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -19419,7 +19523,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="49">
         <f>SUM(B11:B20,'week 7'!D27)</f>
-        <v>0.34375</v>
+        <v>1.8645833333333335</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -19434,7 +19538,7 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -19462,16 +19566,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19485,6 +19579,16 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19499,21 +19603,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" customWidth="1"/>
-    <col min="6" max="6" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:31" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>29</v>
       </c>
@@ -19595,7 +19699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -19617,7 +19721,7 @@
       </c>
       <c r="G4" s="45">
         <f>'week 2'!B11</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="H4" s="36"/>
       <c r="I4" s="44" t="s">
@@ -19640,7 +19744,7 @@
       </c>
       <c r="O4" s="45">
         <f>'week 4'!B11</f>
-        <v>0</v>
+        <v>0.10416666666666663</v>
       </c>
       <c r="Q4" s="44" t="s">
         <v>15</v>
@@ -19651,7 +19755,7 @@
       </c>
       <c r="S4" s="45">
         <f>'week 5'!B11</f>
-        <v>0</v>
+        <v>0.13541666666666663</v>
       </c>
       <c r="U4" s="44" t="s">
         <v>15</v>
@@ -19662,7 +19766,7 @@
       </c>
       <c r="W4" s="45">
         <f>'week 6'!B11</f>
-        <v>0</v>
+        <v>7.291666666666663E-2</v>
       </c>
       <c r="Y4" s="44" t="s">
         <v>15</v>
@@ -19673,7 +19777,7 @@
       </c>
       <c r="AA4" s="45">
         <f>'week 7'!B11</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="AC4" s="37" t="s">
         <v>15</v>
@@ -19687,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
@@ -19709,7 +19813,7 @@
       </c>
       <c r="G5" s="45">
         <f>'week 2'!B13</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="44" t="s">
@@ -19732,7 +19836,7 @@
       </c>
       <c r="O5" s="45">
         <f>'week 4'!B13</f>
-        <v>0</v>
+        <v>0.19791666666666669</v>
       </c>
       <c r="Q5" s="44" t="s">
         <v>16</v>
@@ -19754,7 +19858,7 @@
       </c>
       <c r="W5" s="45">
         <f>'week 6'!B13</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="Y5" s="44" t="s">
         <v>16</v>
@@ -19779,7 +19883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
@@ -19813,7 +19917,7 @@
       </c>
       <c r="K6" s="45">
         <f>'week 3'!B15</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="M6" s="44" t="s">
         <v>17</v>
@@ -19824,7 +19928,7 @@
       </c>
       <c r="O6" s="45">
         <f>'week 4'!B15</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q6" s="44" t="s">
         <v>17</v>
@@ -19835,7 +19939,7 @@
       </c>
       <c r="S6" s="45">
         <f>'week 5'!B15</f>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="U6" s="44" t="s">
         <v>17</v>
@@ -19871,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
@@ -19916,7 +20020,7 @@
       </c>
       <c r="O7" s="45">
         <f>'week 4'!B17</f>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="Q7" s="44" t="s">
         <v>18</v>
@@ -19938,7 +20042,7 @@
       </c>
       <c r="W7" s="45">
         <f>'week 6'!B17</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="Y7" s="44" t="s">
         <v>18</v>
@@ -19963,7 +20067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
         <v>19</v>
       </c>
@@ -19985,7 +20089,7 @@
       </c>
       <c r="G8" s="47">
         <f>'week 2'!B19</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H8" s="36"/>
       <c r="I8" s="46" t="s">
@@ -20030,7 +20134,7 @@
       </c>
       <c r="W8" s="47">
         <f>'week 6'!B19</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Y8" s="46" t="s">
         <v>19</v>
@@ -20055,39 +20159,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AC9" s="36"/>
       <c r="AD9" s="18"/>
       <c r="AE9" s="36"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="48">
         <f>'week 1'!D28</f>
         <v>0.34375</v>
       </c>
       <c r="B24" s="48">
         <f>'week 2'!D28</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="C24" s="48">
         <f>'week 3'!D28</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="D24" s="48">
         <f>'week 4'!D28</f>
-        <v>0</v>
+        <v>0.40624999999999994</v>
       </c>
       <c r="E24" s="48">
         <f>'week 5'!D28</f>
-        <v>0</v>
+        <v>0.29166666666666663</v>
       </c>
       <c r="F24" s="48">
         <f>'week 6'!D28</f>
-        <v>0</v>
+        <v>0.36458333333333337</v>
       </c>
       <c r="G24" s="48">
         <f>'week 7'!D28</f>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="H24" s="48">
         <f>'week 8'!D28</f>
@@ -20097,29 +20201,29 @@
       <c r="M24" s="36"/>
       <c r="O24" s="36">
         <f>SUM(C4,G4,K4,O4,S4,W4,AA4,AE4)</f>
-        <v>0</v>
+        <v>0.49999999999999989</v>
       </c>
       <c r="P24" s="36">
         <f>SUM(C5,G5,K5,O5,S5,W5,AA5,AE5)</f>
-        <v>0</v>
+        <v>0.34375000000000006</v>
       </c>
       <c r="Q24" s="36">
         <f>SUM(C6,G6,K6,O6,S6,W6,AA6,AE6)</f>
-        <v>0.1875</v>
+        <v>0.48958333333333337</v>
       </c>
       <c r="R24" s="36">
         <f>SUM(C7,G7,K7,O7,S7,W7,AA7,AE7)</f>
-        <v>0.10416666666666663</v>
+        <v>0.22916666666666663</v>
       </c>
       <c r="S24" s="36">
         <f>SUM(C8,G8,K8,O8,S8,W8,AA8,AE8)</f>
-        <v>5.208333333333337E-2</v>
+        <v>0.30208333333333337</v>
       </c>
       <c r="U24" s="36"/>
       <c r="Y24" s="36"/>
       <c r="AC24" s="36"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O25" t="s">
         <v>36</v>
       </c>
@@ -20136,8 +20240,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="78" t="s">
         <v>30</v>
       </c>
@@ -20170,7 +20274,7 @@
       <c r="Z27" s="79"/>
       <c r="AA27" s="80"/>
     </row>
-    <row r="28" spans="1:29" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="81"/>
       <c r="B28" s="82"/>
       <c r="C28" s="82"/>
@@ -20209,6 +20313,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20411,27 +20535,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20448,23 +20571,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentatie/Urenverantwoording/Dirk/Urenverantwoording.xlsx
+++ b/Documentatie/Urenverantwoording/Dirk/Urenverantwoording.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bouma\OneDrive\Documenten\School\Project wasmachine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project-digitale-besturing\Documentatie\Urenverantwoording\Dirk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C5DD5E-5946-40B1-8161-D46070D58C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C99FFC-23DD-406E-8161-D98E1C6C27E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34290" yWindow="0" windowWidth="17415" windowHeight="20985" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31320" yWindow="0" windowWidth="20385" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week 1" sheetId="5" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="week 3" sheetId="7" r:id="rId3"/>
     <sheet name="week 4" sheetId="8" r:id="rId4"/>
     <sheet name="week 5" sheetId="9" r:id="rId5"/>
-    <sheet name="week 6" sheetId="10" r:id="rId6"/>
-    <sheet name="week 7" sheetId="11" r:id="rId7"/>
-    <sheet name="week 8" sheetId="12" r:id="rId8"/>
-    <sheet name="algemeene data." sheetId="13" r:id="rId9"/>
+    <sheet name="week 7" sheetId="11" r:id="rId6"/>
+    <sheet name="week 8" sheetId="12" r:id="rId7"/>
+    <sheet name="algemeene data." sheetId="13" r:id="rId8"/>
+    <sheet name="week 6" sheetId="10" r:id="rId9"/>
     <sheet name="datum data." sheetId="4" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -852,18 +852,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,10 +918,25 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="37" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="5" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
@@ -952,9 +955,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14117,8 +14117,8 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:N14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14198,10 +14198,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14209,10 +14209,10 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -14238,10 +14238,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -14249,10 +14249,10 @@
         <v>41</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="s">
+      <c r="J6" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -14319,19 +14319,19 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
       </c>
@@ -14340,25 +14340,25 @@
       <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="50">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
       <c r="P11" s="35"/>
@@ -14369,22 +14369,22 @@
         <f>F2</f>
         <v>45691</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="18"/>
     </row>
@@ -14392,27 +14392,27 @@
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
       <c r="P13" s="35"/>
@@ -14423,22 +14423,22 @@
         <f>A12+1</f>
         <v>45692</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
       <c r="P14" s="35"/>
       <c r="Q14" s="18"/>
     </row>
@@ -14446,26 +14446,26 @@
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <v>0.1875</v>
       </c>
       <c r="C15" s="27">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
       <c r="P15" s="35"/>
@@ -14476,48 +14476,48 @@
         <f>A14+1</f>
         <v>45693</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C17" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14526,48 +14526,48 @@
         <f>A16+1</f>
         <v>45694</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>5.208333333333337E-2</v>
       </c>
       <c r="C19" s="27">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -14576,22 +14576,22 @@
         <f>A18+1</f>
         <v>45695</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -14610,7 +14610,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14632,51 +14632,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -14746,6 +14746,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -14759,16 +14769,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15059,11 +15059,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15071,11 +15071,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15101,11 +15101,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15113,11 +15113,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15184,18 +15184,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15205,27 +15205,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="27">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15234,48 +15234,48 @@
         <f>F2</f>
         <v>45698</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>6.25E-2</v>
       </c>
       <c r="C13" s="27">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15284,46 +15284,46 @@
         <f>A12+1</f>
         <v>45699</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="27">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15332,46 +15332,46 @@
         <f>A14+1</f>
         <v>45700</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15380,48 +15380,48 @@
         <f>A16+1</f>
         <v>45701</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0.125</v>
       </c>
       <c r="C19" s="27">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15430,22 +15430,22 @@
         <f>A18+1</f>
         <v>45702</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -15464,7 +15464,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -15486,51 +15486,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -15603,6 +15603,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="C4:D4"/>
@@ -15612,20 +15626,6 @@
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15717,11 +15717,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -15729,11 +15729,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -15759,11 +15759,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -15771,11 +15771,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -15842,18 +15842,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -15863,27 +15863,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="27">
         <v>0</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15892,48 +15892,48 @@
         <f>F2</f>
         <v>45705</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="27">
         <v>0</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15942,48 +15942,48 @@
         <f>A12+1</f>
         <v>45706</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="C15" s="27">
         <v>0.5</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -15992,48 +15992,48 @@
         <f>A14+1</f>
         <v>45707</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="27">
         <v>0</v>
       </c>
-      <c r="D17" s="62" t="s">
+      <c r="D17" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="50">
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16042,48 +16042,48 @@
         <f>A16+1</f>
         <v>45708</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="27">
         <v>0</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="50">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16092,22 +16092,22 @@
         <f>A18+1</f>
         <v>45709</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -16126,7 +16126,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16148,51 +16148,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -16262,6 +16262,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16275,16 +16285,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16376,11 +16376,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -16388,11 +16388,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -16418,11 +16418,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -16430,11 +16430,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -16501,18 +16501,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -16522,27 +16522,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0.10416666666666663</v>
       </c>
       <c r="C11" s="25">
         <v>0.4375</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16551,48 +16551,48 @@
         <f>F2</f>
         <v>45712</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0.19791666666666669</v>
       </c>
       <c r="C13" s="25">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="50">
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16601,48 +16601,48 @@
         <f>A12+1</f>
         <v>45713</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>6.25E-2</v>
       </c>
       <c r="C15" s="25">
         <v>0.4375</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="50">
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="74">
         <v>0</v>
       </c>
     </row>
@@ -16651,45 +16651,45 @@
         <f>A14+1</f>
         <v>45714</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.5</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="C17" s="25">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -16699,47 +16699,47 @@
         <f>A16+1</f>
         <v>45715</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -16749,22 +16749,22 @@
         <f>A18+1</f>
         <v>45716</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -16783,7 +16783,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -16805,51 +16805,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -16919,6 +16919,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -16932,16 +16942,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17035,11 +17035,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17047,11 +17047,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17077,11 +17077,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17089,11 +17089,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17160,18 +17160,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17181,27 +17181,27 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0.13541666666666663</v>
       </c>
       <c r="C11" s="25">
         <v>0.46875</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -17210,45 +17210,45 @@
         <f>F2</f>
         <v>45719</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17258,47 +17258,47 @@
         <f>A12+1</f>
         <v>45720</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0.15625</v>
       </c>
       <c r="C15" s="25">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17308,45 +17308,45 @@
         <f>A14+1</f>
         <v>45721</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0.67708333333333337</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -17356,45 +17356,45 @@
         <f>A16+1</f>
         <v>45722</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -17404,22 +17404,22 @@
         <f>A18+1</f>
         <v>45723</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -17438,7 +17438,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -17460,51 +17460,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -17574,6 +17574,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -17587,16 +17597,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -17615,19 +17615,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6B95B5-AE74-4909-B9D0-C22E87668A26}">
-  <sheetPr codeName="Blad7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6972B9-2DF5-42E2-B7B2-3C17462B5DE6}">
+  <sheetPr codeName="Blad8"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="A12" sqref="A11:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
@@ -17651,15 +17651,15 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
-        <f>'week 5'!D2+1</f>
-        <v>6</v>
+        <f>'week 6'!D2+1</f>
+        <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="7">
-        <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 6'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45726</v>
+        <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 7'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
+        <v>45733</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9" t="s">
@@ -17667,7 +17667,7 @@
       </c>
       <c r="I2" s="7">
         <f>F2+4</f>
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="10" t="s">
@@ -17701,11 +17701,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -17713,11 +17713,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -17743,11 +17743,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -17755,11 +17755,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -17826,18 +17826,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -17847,76 +17847,76 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
-        <f>C12-C11-O11</f>
-        <v>7.291666666666663E-2</v>
+      <c r="B11" s="71">
+        <f>C12-C11</f>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="C11" s="25">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="50">
+        <v>0.4375</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <f>F2</f>
-        <v>45726</v>
-      </c>
-      <c r="B12" s="55"/>
+        <v>45733</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
-        <f>C14-C13</f>
-        <v>8.333333333333337E-2</v>
+      <c r="B13" s="71">
+        <f>C14-C13-O13</f>
+        <v>0</v>
       </c>
       <c r="C13" s="25">
-        <v>0.4375</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -17924,47 +17924,49 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <f>A12+1</f>
-        <v>45727</v>
-      </c>
-      <c r="B14" s="55"/>
+        <v>45734</v>
+      </c>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -17972,49 +17974,49 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <f>A14+1</f>
-        <v>45728</v>
-      </c>
-      <c r="B16" s="84"/>
+        <v>45735</v>
+      </c>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="25">
-        <v>0.4375</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -18022,49 +18024,49 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <f>A16+1</f>
-        <v>45729</v>
-      </c>
-      <c r="B18" s="55"/>
+        <v>45736</v>
+      </c>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="C19" s="25">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -18072,24 +18074,24 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f>A18+1</f>
-        <v>45730</v>
-      </c>
-      <c r="B20" s="55"/>
+        <v>45737</v>
+      </c>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -18108,7 +18110,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -18130,51 +18132,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -18200,8 +18202,8 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="49">
-        <f>SUM(B11:B20,'week 5'!D27)</f>
-        <v>1.78125</v>
+        <f>SUM(B11:B20,'week 6'!D27)</f>
+        <v>1.8645833333333335</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
@@ -18224,7 +18226,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="49">
         <f>SUM(B11:B20)</f>
-        <v>0.36458333333333337</v>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
@@ -18233,7 +18235,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="32">
-        <f>I27+'week 5'!I28</f>
+        <f>I27+'week 6'!I28</f>
         <v>0</v>
       </c>
       <c r="J28" s="2"/>
@@ -18244,6 +18246,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D11:N12"/>
     <mergeCell ref="D13:N14"/>
@@ -18257,676 +18269,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6972B9-2DF5-42E2-B7B2-3C17462B5DE6}">
-  <sheetPr codeName="Blad8"/>
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5">
-        <f>'week 6'!D2+1</f>
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="7">
-        <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 7'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
-        <v>45733</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="7">
-        <f>F2+4</f>
-        <v>45737</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="10">
-        <f>'week 1'!L2</f>
-        <v>2025</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
-        <f>'week 1'!C4</f>
-        <v>Dirk Bouma</v>
-      </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
-        <f>'week 1'!J4</f>
-        <v>NHL stenden</v>
-      </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
-        <f>'week 1'!C6</f>
-        <v>Hendrik Bijlsma</v>
-      </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
-        <f>'week 1'!J6</f>
-        <v>Cees Draaier</v>
-      </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="75">
-        <f>C12-C11</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="C11" s="25">
-        <v>0.4375</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
-        <f>F2</f>
-        <v>45733</v>
-      </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="26">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="75">
-        <f>C14-C13-O13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <f>A12+1</f>
-        <v>45734</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="26">
-        <v>0</v>
-      </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="75">
-        <f>C16-C15-O15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="25">
-        <v>0</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <f>A14+1</f>
-        <v>45735</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="75">
-        <f>C18-C17-O17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <f>A16+1</f>
-        <v>45736</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="26">
-        <v>0</v>
-      </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="75">
-        <f>C20-C19-O19</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <f>A18+1</f>
-        <v>45737</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="49">
-        <f>SUM(B11:B20,'week 6'!D27)</f>
-        <v>1.8645833333333335</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="49">
-        <f>SUM(B11:B20)</f>
-        <v>8.333333333333337E-2</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="32">
-        <f>I27+'week 6'!I28</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="D11:N12"/>
-    <mergeCell ref="D13:N14"/>
-    <mergeCell ref="D15:N16"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B23:G25"/>
-    <mergeCell ref="H23:M25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D17:N18"/>
-    <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18944,7 +18286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85920B1-0B84-4325-9202-1296F349ADE3}">
   <sheetPr codeName="Blad9"/>
   <dimension ref="A1:O28"/>
@@ -19031,11 +18373,11 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="52" t="str">
+      <c r="C4" s="72" t="str">
         <f>'week 1'!C4</f>
         <v>Dirk Bouma</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -19043,11 +18385,11 @@
         <v>6</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="52" t="str">
+      <c r="J4" s="72" t="str">
         <f>'week 1'!J4</f>
         <v>NHL stenden</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="72"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -19073,11 +18415,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="str">
+      <c r="C6" s="72" t="str">
         <f>'week 1'!C6</f>
         <v>Hendrik Bijlsma</v>
       </c>
-      <c r="D6" s="52"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -19085,11 +18427,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="52" t="str">
+      <c r="J6" s="72" t="str">
         <f>'week 1'!J6</f>
         <v>Cees Draaier</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="72"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -19156,18 +18498,18 @@
       <c r="C10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
       <c r="N10" s="76"/>
       <c r="O10" s="43" t="s">
         <v>38</v>
@@ -19177,25 +18519,25 @@
       <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="75">
+      <c r="B11" s="71">
         <f>C12-C11-O11</f>
         <v>0</v>
       </c>
       <c r="C11" s="25">
         <v>0</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="50">
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="74">
         <v>0</v>
       </c>
     </row>
@@ -19204,45 +18546,45 @@
         <f>F2</f>
         <v>45740</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="26">
         <v>0</v>
       </c>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B13" s="71">
         <f>C14-C13-O13</f>
         <v>0</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
       <c r="O13" s="77">
         <v>0</v>
       </c>
@@ -19252,45 +18594,45 @@
         <f>A12+1</f>
         <v>45741</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="26">
         <v>0</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="51"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="71">
         <f>C16-C15-O15</f>
         <v>0</v>
       </c>
       <c r="C15" s="25">
         <v>0</v>
       </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="77">
         <v>0</v>
       </c>
@@ -19300,45 +18642,45 @@
         <f>A14+1</f>
         <v>45742</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="26">
         <v>0</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="51"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="71">
         <f>C18-C17-O17</f>
         <v>0</v>
       </c>
       <c r="C17" s="25">
         <v>0</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="64"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
       <c r="O17" s="77">
         <v>0</v>
       </c>
@@ -19348,45 +18690,45 @@
         <f>A16+1</f>
         <v>45743</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="26">
         <v>0</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="60"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="51"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="71">
         <f>C20-C19-O19</f>
         <v>0</v>
       </c>
       <c r="C19" s="25">
         <v>0</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="64"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
       <c r="O19" s="77">
         <v>0</v>
       </c>
@@ -19396,22 +18738,22 @@
         <f>A18+1</f>
         <v>45744</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="26">
         <v>0</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="51"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -19430,7 +18772,7 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -19452,51 +18794,51 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="70"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="70"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="67"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="74"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="2"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -19566,6 +18908,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="D13:N14"/>
     <mergeCell ref="D11:N12"/>
@@ -19579,23 +18931,13 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D17:N18"/>
     <mergeCell ref="D19:N20"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="D10:N10"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="O17:O18"/>
-    <mergeCell ref="O19:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84663F82-8E6B-4630-99FD-4C6B7C44BB88}">
   <dimension ref="A2:AE28"/>
   <sheetViews>
@@ -20242,64 +19584,64 @@
     </row>
     <row r="26" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="80"/>
-      <c r="N27" s="78" t="s">
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="81"/>
+      <c r="N27" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="80"/>
-      <c r="V27" s="78" t="s">
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
+      <c r="Q27" s="80"/>
+      <c r="R27" s="80"/>
+      <c r="S27" s="80"/>
+      <c r="T27" s="81"/>
+      <c r="V27" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="80"/>
+      <c r="W27" s="80"/>
+      <c r="X27" s="80"/>
+      <c r="Y27" s="80"/>
+      <c r="Z27" s="80"/>
+      <c r="AA27" s="81"/>
     </row>
     <row r="28" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="83"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="83"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="83"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="84"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="84"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -20312,27 +19654,665 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6B95B5-AE74-4909-B9D0-C22E87668A26}">
+  <sheetPr codeName="Blad7"/>
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5">
+        <f>'week 5'!D2+1</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <f>IF($D$2='datum data.'!B2,'datum data.'!D2,IF($D$2='datum data.'!B4,'datum data.'!D4,IF(D2='datum data.'!B6,'datum data.'!D6,IF(D2='datum data.'!B8,'datum data.'!D8,IF('week 6'!D2='datum data.'!B10,'datum data.'!D10,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B12,'datum data.'!D12,IF(D2='datum data.'!B14,'datum data.'!D14,IF(D2='datum data.'!B16,'datum data.'!D16,IF(D2='datum data.'!B18,'datum data.'!D18))))))))))</f>
+        <v>45726</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7">
+        <f>F2+4</f>
+        <v>45730</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="10">
+        <f>'week 1'!L2</f>
+        <v>2025</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="72" t="str">
+        <f>'week 1'!C4</f>
+        <v>Dirk Bouma</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="72" t="str">
+        <f>'week 1'!J4</f>
+        <v>NHL stenden</v>
+      </c>
+      <c r="K4" s="72"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="72" t="str">
+        <f>'week 1'!C6</f>
+        <v>Hendrik Bijlsma</v>
+      </c>
+      <c r="D6" s="72"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="72" t="str">
+        <f>'week 1'!J6</f>
+        <v>Cees Draaier</v>
+      </c>
+      <c r="K6" s="72"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="71">
+        <f>C12-C11-O11</f>
+        <v>7.291666666666663E-2</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <f>F2</f>
+        <v>45726</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="26">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="75"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="71">
+        <f>C14-C13</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <f>A12+1</f>
+        <v>45727</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="26">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="75"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="71">
+        <f>C16-C15-O15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>0</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <f>A14+1</f>
+        <v>45728</v>
+      </c>
+      <c r="B16" s="78"/>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="75"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="71">
+        <f>C18-C17-O17</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.4375</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <f>A16+1</f>
+        <v>45729</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="26">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="75"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="71">
+        <f>C20-C19-O19</f>
+        <v>0.125</v>
+      </c>
+      <c r="C19" s="25">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <f>A18+1</f>
+        <v>45730</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="26">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="75"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="62"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="62"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="63"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="49">
+        <f>SUM(B11:B20,'week 5'!D27)</f>
+        <v>1.78125</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="49">
+        <f>SUM(B11:B20)</f>
+        <v>0.36458333333333337</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="32">
+        <f>I27+'week 5'!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O17:O18"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="D10:N10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:N12"/>
+    <mergeCell ref="D13:N14"/>
+    <mergeCell ref="D15:N16"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B23:G25"/>
+    <mergeCell ref="H23:M25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D17:N18"/>
+    <mergeCell ref="D19:N20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100620D60D3A7791A408192F9577A622611" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="6d60ec7fb257b476c7e22b24fdeb809b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2311421a-1a78-47dc-a354-ac7cd3350930" xmlns:ns3="c229a3ec-9035-4016-afff-d65ac05ad1ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60329889ea8ef2a5b5bc5aca08810b53" ns2:_="" ns3:_="">
     <xsd:import namespace="2311421a-1a78-47dc-a354-ac7cd3350930"/>
@@ -20535,26 +20515,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
-    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2311421a-1a78-47dc-a354-ac7cd3350930">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c229a3ec-9035-4016-afff-d65ac05ad1ff" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{852518A3-07B4-4E61-9724-DAD571943AC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20571,4 +20552,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95246B6B-5867-475C-A1FA-BAC082A87CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED771D81-13A9-4225-8AFE-4E2129F69B97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2311421a-1a78-47dc-a354-ac7cd3350930"/>
+    <ds:schemaRef ds:uri="c229a3ec-9035-4016-afff-d65ac05ad1ff"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>